--- a/Constants_database.xlsx
+++ b/Constants_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cejpek\Documents\MATLAB\Shift and broadening\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cejpek\Documents\MATLAB\PSB_GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A309956-F5F9-4492-BC1E-66AAE83E1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C67FF99-5E2D-4DF7-A81F-6C16652D19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="855" windowWidth="19440" windowHeight="15000" xr2:uid="{5BBC1656-46AC-45BB-974D-4BF683E2D0DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BBC1656-46AC-45BB-974D-4BF683E2D0DC}"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>329</v>
       </c>
       <c r="G10" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
